--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61B774-1BCA-4F70-8AE9-5B995B51679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6F59F8-AF74-4354-9EF3-DA8D529B8645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -473,21 +473,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -521,7 +521,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -543,7 +543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -554,7 +554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -577,19 +577,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23ABE68-F70F-40C6-96AF-19103EF89B64}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -637,7 +637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -659,7 +659,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -667,7 +667,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -675,7 +675,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -683,7 +683,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -691,7 +691,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6F59F8-AF74-4354-9EF3-DA8D529B8645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F3D446-DCA9-4751-9BE6-5C911AB44036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Keyword</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
   </si>
 </sst>
 </file>
@@ -471,23 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -521,52 +524,64 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -581,15 +596,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -609,7 +624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,7 +638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -637,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -651,7 +666,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -659,7 +674,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -667,7 +682,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -675,7 +690,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -683,7 +698,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -691,7 +706,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Recall_Confirm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F3D446-DCA9-4751-9BE6-5C911AB44036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CB5D4-7A73-467E-B261-BCAD4881AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
